--- a/server/loginDataAccess.xlsx
+++ b/server/loginDataAccess.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2024ICBT\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35358760-9033-4D0E-8527-CFF7702A5F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B008C598-62C0-4E71-8E20-ACDF6CD18617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dqm_placement" sheetId="1" r:id="rId1"/>
     <sheet name="regionCODES" sheetId="8" r:id="rId2"/>
     <sheet name="districtCODES" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" sheetId="6" r:id="rId4"/>
-    <sheet name="posting" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="posting" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dqm_placement!$A$1:$H$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dqm_placement!$A$1:$H$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="460">
   <si>
     <t>email</t>
   </si>
@@ -1417,19 +1418,10 @@
     <t>FACILITATORS</t>
   </si>
   <si>
-    <t>not_assigned</t>
-  </si>
-  <si>
     <t>startRegionCode</t>
   </si>
   <si>
     <t>endRegionCode</t>
-  </si>
-  <si>
-    <t>andosty@gmail.com</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1558,13 +1550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1665,7 +1657,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1714,6 +1706,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -2000,10 +1993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2032,395 +2026,387 @@
         <v>322</v>
       </c>
       <c r="F1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1" t="s">
         <v>459</v>
-      </c>
-      <c r="G1" t="s">
-        <v>460</v>
       </c>
       <c r="H1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="27">
         <f>VLOOKUP(C2,regionCODES!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G18" si="0">F2</f>
+      <c r="G2" s="27">
+        <f t="shared" ref="G2:G14" si="0">F2</f>
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="27" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="27">
+        <f>VLOOKUP(C3,regionCODES!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(C4,regionCODES!A:B,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="27">
+        <f>VLOOKUP(C5,regionCODES!A:B,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F3">
-        <f>VLOOKUP(C3,regionCODES!A:B,2,FALSE)</f>
+      <c r="F6" s="27">
+        <f>VLOOKUP(C6,regionCODES!A:B,2,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="G3">
+      <c r="G6" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H6" s="27" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="7" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4">
-        <f>VLOOKUP(C4,regionCODES!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="G4">
+      <c r="C7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="27">
+        <f>VLOOKUP(C7,regionCODES!A:B,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="G7" s="27">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="F5">
-        <f>VLOOKUP(C5,regionCODES!A:B,2,FALSE)</f>
+      <c r="F8">
+        <f>VLOOKUP(C8,regionCODES!A:B,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="G5">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <f>VLOOKUP(C6,regionCODES!A:B,2,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <f>VLOOKUP(C7,regionCODES!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <f>VLOOKUP(C8,regionCODES!A:B,2,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
       <c r="H8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
+      <c r="A9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
+      <c r="C9" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="F9">
         <f>VLOOKUP(C9,regionCODES!A:B,2,FALSE)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
+      <c r="A10" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
+      <c r="C10" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="F10">
         <f>VLOOKUP(C10,regionCODES!A:B,2,FALSE)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
+      <c r="C11" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="F11">
         <f>VLOOKUP(C11,regionCODES!A:B,2,FALSE)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12">
+        <v>36</v>
+      </c>
+      <c r="F12" s="27">
         <f>VLOOKUP(C12,regionCODES!A:B,2,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="27" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>458</v>
+      <c r="A13" t="s">
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
+      <c r="C13" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="F13">
         <f>VLOOKUP(C13,regionCODES!A:B,2,FALSE)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14">
+      <c r="C14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="27">
         <f>VLOOKUP(C14,regionCODES!A:B,2,FALSE)</f>
-        <v>13</v>
-      </c>
-      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <f>VLOOKUP(C15,regionCODES!A:B,2,FALSE)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16">
-        <f>VLOOKUP(C16,regionCODES!A:B,2,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F17">
-        <f>VLOOKUP(C17,regionCODES!A:B,2,FALSE)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
       </c>
       <c r="F18">
-        <f>VLOOKUP(C18,regionCODES!A:B,2,FALSE)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -2435,124 +2421,26 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B24" t="s">
-        <v>462</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>462</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
-      <sortCondition ref="B2:B23"/>
-      <sortCondition ref="D2:D23"/>
-      <sortCondition ref="A2:A23"/>
+  <autoFilter ref="A1:H19" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="dqm"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
+      <sortCondition ref="B2:B19"/>
+      <sortCondition ref="D2:D19"/>
+      <sortCondition ref="A2:A19"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{2280862F-B988-42F8-B8D0-F28E5CBE746A}"/>
-    <hyperlink ref="A12" r:id="rId2" xr:uid="{D626F59B-8E50-44E9-AC4C-8F2EA6B22CDC}"/>
-    <hyperlink ref="A11" r:id="rId3" xr:uid="{740B8960-B9E1-4EBE-9BE7-4237D685F812}"/>
-    <hyperlink ref="A18" r:id="rId4" xr:uid="{C87043D4-D91A-4C9F-B45F-30EC307B7676}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{A5CB1493-BA55-4E3A-83E3-B66195F01E25}"/>
-    <hyperlink ref="A20" r:id="rId6" xr:uid="{DE681AFC-66F8-415A-9C4F-04CF55F0A9FA}"/>
-    <hyperlink ref="A2" r:id="rId7" xr:uid="{74C90144-6B29-4F24-9A0A-97908146FAA4}"/>
-    <hyperlink ref="A7" r:id="rId8" xr:uid="{B2A0BB63-E96F-488F-9DDD-8FCC3E2F8A6A}"/>
-    <hyperlink ref="A24" r:id="rId9" xr:uid="{79C6D1B9-EAEF-4BF0-BC40-470236E6A752}"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{D626F59B-8E50-44E9-AC4C-8F2EA6B22CDC}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{740B8960-B9E1-4EBE-9BE7-4237D685F812}"/>
+    <hyperlink ref="A14" r:id="rId3" xr:uid="{C87043D4-D91A-4C9F-B45F-30EC307B7676}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{A5CB1493-BA55-4E3A-83E3-B66195F01E25}"/>
+    <hyperlink ref="A16" r:id="rId5" xr:uid="{DE681AFC-66F8-415A-9C4F-04CF55F0A9FA}"/>
+    <hyperlink ref="A2" r:id="rId6" xr:uid="{74C90144-6B29-4F24-9A0A-97908146FAA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7450,11 +7338,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9646CC-C19B-41D4-B524-9BC17A90B93E}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8951C67A-9BF8-4D82-95D4-0E1226FFDFDC}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9646CC-C19B-41D4-B524-9BC17A90B93E}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7462,69 +7400,112 @@
     <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="5">
         <v>16</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7532,7 +7513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423BDB98-5714-4629-B6F7-66FF2699AE34}">
   <dimension ref="A1:E69"/>
   <sheetViews>

--- a/server/loginDataAccess.xlsx
+++ b/server/loginDataAccess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2024ICBT\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1A6340-C04E-4B2D-8F02-65CDC3CCC133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0053D4A1-35E7-45DE-81DB-1331F5B38F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,9 @@
     <sheet name="dqm_placement" sheetId="1" r:id="rId1"/>
     <sheet name="regionCODES" sheetId="8" r:id="rId2"/>
     <sheet name="districtCODES" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
-    <sheet name="Sheet1 (2)" sheetId="6" r:id="rId5"/>
-    <sheet name="posting" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dqm_placement!$A$1:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dqm_placement!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="339">
   <si>
     <t>email</t>
   </si>
@@ -155,18 +152,6 @@
     <t>Northern</t>
   </si>
   <si>
-    <t>RegionName</t>
-  </si>
-  <si>
-    <t>Western North</t>
-  </si>
-  <si>
-    <t>Upper East</t>
-  </si>
-  <si>
-    <t>Upper West</t>
-  </si>
-  <si>
     <t>districtName</t>
   </si>
   <si>
@@ -1007,428 +992,77 @@
     <t>NANDOM MUNICIPAL (NANDOM)</t>
   </si>
   <si>
-    <t>startDistrictCode</t>
-  </si>
-  <si>
-    <t>endDistrictCode</t>
-  </si>
-  <si>
-    <t>Training Venue</t>
-  </si>
-  <si>
     <t>placementRelated</t>
   </si>
   <si>
-    <t>IT Support</t>
-  </si>
-  <si>
-    <t>0555943391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NathanielTete Antie Tetteh </t>
-  </si>
-  <si>
-    <t>0542959143</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alex Boateng </t>
   </si>
   <si>
-    <t>0548311444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanuel Quame Sottie </t>
-  </si>
-  <si>
-    <t>0547009950</t>
-  </si>
-  <si>
-    <t>Priscilla Alifo</t>
-  </si>
-  <si>
-    <t>0246762819</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sampson Arko Adabo </t>
   </si>
   <si>
-    <t>0553969215</t>
-  </si>
-  <si>
     <t>Francis Addo</t>
   </si>
   <si>
-    <t>0553918917</t>
-  </si>
-  <si>
-    <t>TerryNana Kofi BanyinArthur</t>
-  </si>
-  <si>
-    <t>WESTERN AND WESTERN NORTH</t>
-  </si>
-  <si>
-    <t>0501325007</t>
-  </si>
-  <si>
-    <t>Ishmael Commey</t>
-  </si>
-  <si>
-    <t>0599875944</t>
-  </si>
-  <si>
     <t xml:space="preserve">Edward Koduah Tweneboah </t>
   </si>
   <si>
-    <t>0247045145</t>
-  </si>
-  <si>
     <t>Afia Owusu-Afriyie</t>
   </si>
   <si>
-    <t>0241266449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krofua Mensah Onumah </t>
-  </si>
-  <si>
-    <t>0242018811</t>
-  </si>
-  <si>
     <t xml:space="preserve">Francis Baffour Awuah Gyebi </t>
   </si>
   <si>
-    <t>0557892478</t>
-  </si>
-  <si>
     <t>Charlotte Naa-Larbiede Abbey</t>
   </si>
   <si>
-    <t>0544118884</t>
-  </si>
-  <si>
     <t>Andrew Tandoh</t>
   </si>
   <si>
-    <t>0541411613</t>
-  </si>
-  <si>
-    <t>Francis Otchere Asante</t>
-  </si>
-  <si>
-    <t>DQM</t>
-  </si>
-  <si>
-    <t>0541193843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenniffer Ama Gyamesi </t>
-  </si>
-  <si>
-    <t>0503109999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kofi Baah </t>
-  </si>
-  <si>
-    <t>0577053344</t>
-  </si>
-  <si>
-    <t>Safa Buhari</t>
-  </si>
-  <si>
-    <t>0249226266</t>
-  </si>
-  <si>
-    <t>Amatus Nobabumah</t>
-  </si>
-  <si>
-    <t>0244833815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick Agyekum </t>
-  </si>
-  <si>
-    <t>0201413537</t>
-  </si>
-  <si>
-    <t>Phili Tackie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western North </t>
-  </si>
-  <si>
-    <t>0551514374</t>
-  </si>
-  <si>
-    <t>Daniella Adibilo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M&amp;E </t>
-  </si>
-  <si>
-    <t>WN</t>
-  </si>
-  <si>
-    <t>0247639115</t>
-  </si>
-  <si>
-    <t>Joseph Kwasi Asafo</t>
-  </si>
-  <si>
-    <t>0555077651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prince Kusi Appiah </t>
-  </si>
-  <si>
-    <t>0275777602</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acka-Baidoo Ofosu Felix</t>
-  </si>
-  <si>
-    <t>0248688639</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Leticia Turkson</t>
-  </si>
-  <si>
-    <t>0243545870</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Olando Akumey</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>0559226660</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Joshua Mawutor</t>
-  </si>
-  <si>
-    <t>0249644843</t>
-  </si>
-  <si>
-    <t>Godfred Okyere-Prah</t>
-  </si>
-  <si>
-    <t>0277454355</t>
-  </si>
-  <si>
-    <t>Emmanuel Doe</t>
-  </si>
-  <si>
-    <t>0242685289</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Isaac Kofi Antwi-Adjei</t>
-  </si>
-  <si>
-    <t>0244666076</t>
-  </si>
-  <si>
-    <t>Priscilla Opoku</t>
-  </si>
-  <si>
-    <t>UW</t>
-  </si>
-  <si>
-    <t>0245157147</t>
-  </si>
-  <si>
-    <t>Sulemana Osman</t>
-  </si>
-  <si>
-    <t>0245312329</t>
-  </si>
-  <si>
-    <t>Ayman Abu</t>
-  </si>
-  <si>
-    <t>0240320918</t>
-  </si>
-  <si>
-    <t>Wisdom Dorkenoo</t>
-  </si>
-  <si>
-    <t>0552190125</t>
-  </si>
-  <si>
-    <t>Andani Abdullai</t>
-  </si>
-  <si>
-    <t>UE</t>
-  </si>
-  <si>
-    <t>0244280096</t>
-  </si>
-  <si>
-    <t>Boakye Asiamah</t>
-  </si>
-  <si>
-    <t>0244945636</t>
-  </si>
-  <si>
-    <t>Elliot Davor</t>
-  </si>
-  <si>
-    <t>0244729160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephen Asamoah </t>
-  </si>
-  <si>
-    <t>0249436334</t>
-  </si>
-  <si>
-    <t>Abdul Bawa Kadire</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>0546837795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamani Boyom Peter </t>
-  </si>
-  <si>
-    <t>0240487347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konlan Alhassan Awal </t>
-  </si>
-  <si>
-    <t>0245007656</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ATTAH UMAR </t>
-  </si>
-  <si>
-    <t>0243739369</t>
-  </si>
-  <si>
-    <t>Alhassan Dramani</t>
-  </si>
-  <si>
-    <t>0243363988</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Salifu Abdullai</t>
-  </si>
-  <si>
-    <t>0244695423</t>
-  </si>
-  <si>
-    <t>Sylvia Agyeman Addai</t>
-  </si>
-  <si>
-    <t>0592644978</t>
-  </si>
-  <si>
-    <t>Pius Kofi Atigah</t>
-  </si>
-  <si>
-    <t>0558676340</t>
-  </si>
-  <si>
-    <t>Foster Okyere-Agyare</t>
-  </si>
-  <si>
-    <t>0536432349</t>
-  </si>
-  <si>
-    <t>Vida Gyamfi (Nana)</t>
-  </si>
-  <si>
-    <t>024640121</t>
-  </si>
-  <si>
-    <t>Francisca Thompson</t>
-  </si>
-  <si>
-    <t>0242512412</t>
-  </si>
-  <si>
-    <t>Peacelyn Selinam Lawrence</t>
-  </si>
-  <si>
-    <t>0559990452</t>
-  </si>
-  <si>
-    <t>Naomi Otoo</t>
-  </si>
-  <si>
-    <t>0557907790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ablorde Francis </t>
-  </si>
-  <si>
-    <t>0244115698</t>
-  </si>
-  <si>
-    <t>Adriana  Attoh</t>
-  </si>
-  <si>
-    <t>0556192855</t>
-  </si>
-  <si>
-    <t>Kattah Eunice Esinam</t>
-  </si>
-  <si>
-    <t>0244522429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alice Ofosu </t>
-  </si>
-  <si>
-    <t>0559929211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Andrew Myres </t>
-  </si>
-  <si>
-    <t>0206581419</t>
-  </si>
-  <si>
-    <t>Ebenezer Anang</t>
-  </si>
-  <si>
-    <t>0244620270</t>
-  </si>
-  <si>
-    <t>Joyce Date</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
-    <t>S/N</t>
-  </si>
-  <si>
-    <t>FACILITATORS</t>
-  </si>
-  <si>
     <t>startRegionCode</t>
   </si>
   <si>
     <t>endRegionCode</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathaniel Tete Antie Tetteh  </t>
+  </si>
+  <si>
+    <t>Terry Nana Kofi Banyin Arthur</t>
+  </si>
+  <si>
+    <t>Priscilla  Alifo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuel  Quame Sottie </t>
+  </si>
+  <si>
+    <t>Krofua Mensah Onumah</t>
+  </si>
+  <si>
+    <t>Ishmael  Commey</t>
+  </si>
+  <si>
+    <t>FRANCIS OTCHERE ASANTE</t>
+  </si>
+  <si>
+    <t>Main Field Work</t>
+  </si>
+  <si>
+    <t>startTeamNumber</t>
+  </si>
+  <si>
+    <t>endTeamNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1452,48 +1086,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1503,33 +1100,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1538,30 +1122,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
-        <bgColor rgb="FFF8F9FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1569,146 +1141,38 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD6DADC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD6DADC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD6DADC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1993,450 +1457,738 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="8"/>
+    <col min="3" max="3" width="14.109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="8" customWidth="1"/>
+    <col min="6" max="7" width="14.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="9"/>
+    <col min="10" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="D1" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="27">
+      <c r="D2" s="4">
+        <f>E2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
         <f>VLOOKUP(C2,regionCODES!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="27">
-        <f t="shared" ref="G2:G14" si="0">F2</f>
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="G2" s="4">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4">
+        <f>E3</f>
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>120</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="27">
-        <f>VLOOKUP(C3,regionCODES!A:B,2,FALSE)</f>
+      <c r="D5" s="4">
+        <f>E5</f>
         <v>4</v>
       </c>
-      <c r="G3" s="27">
-        <f t="shared" si="0"/>
+      <c r="E5" s="4">
+        <f>VLOOKUP(C5,regionCODES!A:B,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>120</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <f>VLOOKUP(C4,regionCODES!A:B,2,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="27">
-        <f>VLOOKUP(C5,regionCODES!A:B,2,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="G5" s="27">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="27">
-        <f>VLOOKUP(C6,regionCODES!A:B,2,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G6" s="27">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="27">
+      <c r="D7" s="4">
+        <f>E7</f>
+        <v>13</v>
+      </c>
+      <c r="E7" s="4">
         <f>VLOOKUP(C7,regionCODES!A:B,2,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="G7" s="27">
-        <f t="shared" si="0"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4">
+        <f>E8</f>
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <f>VLOOKUP(C8,regionCODES!A:B,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F8" s="4">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4">
+        <f>E9</f>
+        <v>14</v>
+      </c>
+      <c r="E9" s="4">
+        <f>VLOOKUP(C9,regionCODES!A:B,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4">
+        <f>E10</f>
+        <v>7</v>
+      </c>
+      <c r="E10" s="4">
+        <f>VLOOKUP(C10,regionCODES!A:B,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>120</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4">
+        <f>E12</f>
+        <v>4</v>
+      </c>
+      <c r="E12" s="4">
+        <f>VLOOKUP(C12,regionCODES!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4">
+        <f>E13</f>
+        <v>16</v>
+      </c>
+      <c r="E13" s="4">
+        <f>VLOOKUP(C13,regionCODES!A:B,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>120</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4">
+        <f>E15</f>
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <f>VLOOKUP(C15,regionCODES!A:B,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>16</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4">
+        <f>E16</f>
+        <v>9</v>
+      </c>
+      <c r="E16" s="4">
+        <f>VLOOKUP(C16,regionCODES!A:B,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="F16" s="4">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4">
+        <v>22</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4">
+        <f>E17</f>
+        <v>4</v>
+      </c>
+      <c r="E17" s="4">
+        <f>VLOOKUP(C17,regionCODES!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>60</v>
+      </c>
+      <c r="G17" s="4">
+        <v>80</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>120</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4">
+        <f>E19</f>
+        <v>4</v>
+      </c>
+      <c r="E19" s="4">
+        <f>VLOOKUP(C19,regionCODES!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>40</v>
+      </c>
+      <c r="G19" s="4">
+        <v>59</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4">
+        <f>E20</f>
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <f>VLOOKUP(C20,regionCODES!A:B,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4">
+        <f>E21</f>
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <f>VLOOKUP(C21,regionCODES!A:B,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>16</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4">
+        <f>E22</f>
+        <v>11</v>
+      </c>
+      <c r="E22" s="4">
+        <f>VLOOKUP(C22,regionCODES!A:B,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H22" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8">
-        <f>VLOOKUP(C8,regionCODES!A:B,2,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9">
-        <f>VLOOKUP(C9,regionCODES!A:B,2,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <f>VLOOKUP(C10,regionCODES!A:B,2,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4">
+        <f>E23</f>
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11">
-        <f>VLOOKUP(C11,regionCODES!A:B,2,FALSE)</f>
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="27">
-        <f>VLOOKUP(C12,regionCODES!A:B,2,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="G12" s="27">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13">
-        <f>VLOOKUP(C13,regionCODES!A:B,2,FALSE)</f>
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="27">
-        <f>VLOOKUP(C14,regionCODES!A:B,2,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="G14" s="27">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E23" s="4">
+        <f>VLOOKUP(C23,regionCODES!A:B,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="F23" s="4">
+        <v>17</v>
+      </c>
+      <c r="G23" s="4">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>323</v>
+      <c r="H23" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H19" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
-      <sortCondition ref="B2:B19"/>
-      <sortCondition ref="D2:D19"/>
-      <sortCondition ref="A2:A19"/>
+  <autoFilter ref="A1:I23" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I22">
+      <sortCondition ref="A1:A22"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" xr:uid="{D626F59B-8E50-44E9-AC4C-8F2EA6B22CDC}"/>
-    <hyperlink ref="A9" r:id="rId2" xr:uid="{740B8960-B9E1-4EBE-9BE7-4237D685F812}"/>
-    <hyperlink ref="A14" r:id="rId3" xr:uid="{C87043D4-D91A-4C9F-B45F-30EC307B7676}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{A5CB1493-BA55-4E3A-83E3-B66195F01E25}"/>
-    <hyperlink ref="A16" r:id="rId5" xr:uid="{DE681AFC-66F8-415A-9C4F-04CF55F0A9FA}"/>
-    <hyperlink ref="A2" r:id="rId6" xr:uid="{74C90144-6B29-4F24-9A0A-97908146FAA4}"/>
+    <hyperlink ref="A17" r:id="rId1" xr:uid="{D626F59B-8E50-44E9-AC4C-8F2EA6B22CDC}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{740B8960-B9E1-4EBE-9BE7-4237D685F812}"/>
+    <hyperlink ref="A22" r:id="rId3" xr:uid="{C87043D4-D91A-4C9F-B45F-30EC307B7676}"/>
+    <hyperlink ref="A10" r:id="rId4" xr:uid="{A5CB1493-BA55-4E3A-83E3-B66195F01E25}"/>
+    <hyperlink ref="A14" r:id="rId5" xr:uid="{DE681AFC-66F8-415A-9C4F-04CF55F0A9FA}"/>
+    <hyperlink ref="A3" r:id="rId6" xr:uid="{74C90144-6B29-4F24-9A0A-97908146FAA4}"/>
+    <hyperlink ref="A2" r:id="rId7" xr:uid="{9DAE8955-5296-4A96-BE41-F0D4D89EED46}"/>
+    <hyperlink ref="A16" r:id="rId8" xr:uid="{0A86EA83-5372-4B24-857B-0197E66FA2F0}"/>
+    <hyperlink ref="A23" r:id="rId9" xr:uid="{A68EAAD3-3FA1-4D5D-AEF2-3BDF361FF021}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -2464,7 +2216,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2472,7 +2224,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2480,7 +2232,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2488,7 +2240,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2496,7 +2248,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2504,7 +2256,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2512,7 +2264,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2520,7 +2272,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2528,7 +2280,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2536,7 +2288,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2544,7 +2296,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2552,7 +2304,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2560,7 +2312,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2568,7 +2320,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2576,7 +2328,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2584,7 +2336,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2600,7 +2352,7 @@
   <dimension ref="A1:E262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2619,24 +2371,24 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>101</v>
@@ -2648,13 +2400,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>102</v>
@@ -2666,13 +2418,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>103</v>
@@ -2684,13 +2436,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>104</v>
@@ -2702,13 +2454,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>105</v>
@@ -2720,13 +2472,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>106</v>
@@ -2738,13 +2490,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>107</v>
@@ -2756,13 +2508,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>108</v>
@@ -2774,13 +2526,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>109</v>
@@ -2792,13 +2544,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>110</v>
@@ -2810,13 +2562,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>111</v>
@@ -2828,13 +2580,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>112</v>
@@ -2846,13 +2598,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>113</v>
@@ -2864,13 +2616,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>114</v>
@@ -2882,13 +2634,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>201</v>
@@ -2900,13 +2652,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>202</v>
@@ -2918,13 +2670,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>203</v>
@@ -2936,13 +2688,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>204</v>
@@ -2954,13 +2706,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>205</v>
@@ -2972,13 +2724,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>206</v>
@@ -2990,13 +2742,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22">
         <v>207</v>
@@ -3008,13 +2760,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>208</v>
@@ -3026,13 +2778,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>209</v>
@@ -3044,13 +2796,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>210</v>
@@ -3062,13 +2814,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>211</v>
@@ -3080,13 +2832,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D27">
         <v>212</v>
@@ -3098,13 +2850,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D28">
         <v>213</v>
@@ -3116,13 +2868,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>214</v>
@@ -3134,13 +2886,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <v>215</v>
@@ -3152,13 +2904,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>216</v>
@@ -3170,13 +2922,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>217</v>
@@ -3188,13 +2940,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D33">
         <v>218</v>
@@ -3206,13 +2958,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>219</v>
@@ -3224,13 +2976,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <v>220</v>
@@ -3242,13 +2994,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D36">
         <v>221</v>
@@ -3260,13 +3012,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D37">
         <v>222</v>
@@ -3278,13 +3030,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <v>301</v>
@@ -3296,13 +3048,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D39">
         <v>302</v>
@@ -3314,13 +3066,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D40">
         <v>303</v>
@@ -3332,13 +3084,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D41">
         <v>304</v>
@@ -3350,13 +3102,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D42">
         <v>305</v>
@@ -3368,13 +3120,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D43">
         <v>306</v>
@@ -3386,13 +3138,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D44">
         <v>307</v>
@@ -3404,13 +3156,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D45">
         <v>308</v>
@@ -3422,13 +3174,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D46">
         <v>309</v>
@@ -3440,13 +3192,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D47">
         <v>310</v>
@@ -3458,13 +3210,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D48">
         <v>311</v>
@@ -3476,13 +3228,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D49">
         <v>312</v>
@@ -3494,13 +3246,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D50">
         <v>313</v>
@@ -3512,13 +3264,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D51">
         <v>314</v>
@@ -3530,13 +3282,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D52">
         <v>315</v>
@@ -3548,13 +3300,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D53">
         <v>316</v>
@@ -3566,13 +3318,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D54">
         <v>317</v>
@@ -3584,13 +3336,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D55">
         <v>318</v>
@@ -3602,13 +3354,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D56">
         <v>319</v>
@@ -3620,13 +3372,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D57">
         <v>320</v>
@@ -3638,13 +3390,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D58">
         <v>321</v>
@@ -3656,13 +3408,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D59">
         <v>322</v>
@@ -3674,13 +3426,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D60">
         <v>323</v>
@@ -3692,13 +3444,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D61">
         <v>324</v>
@@ -3710,13 +3462,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D62">
         <v>325</v>
@@ -3728,13 +3480,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D63">
         <v>326</v>
@@ -3746,13 +3498,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D64">
         <v>327</v>
@@ -3764,13 +3516,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D65">
         <v>328</v>
@@ -3782,13 +3534,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D66">
         <v>329</v>
@@ -3800,13 +3552,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D67">
         <v>401</v>
@@ -3818,13 +3570,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B68">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D68">
         <v>402</v>
@@ -3836,13 +3588,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D69">
         <v>403</v>
@@ -3854,13 +3606,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D70">
         <v>404</v>
@@ -3872,13 +3624,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D71">
         <v>405</v>
@@ -3890,13 +3642,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B72">
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D72">
         <v>406</v>
@@ -3908,13 +3660,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B73">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D73">
         <v>407</v>
@@ -3926,13 +3678,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D74">
         <v>408</v>
@@ -3944,13 +3696,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B75">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D75">
         <v>409</v>
@@ -3962,13 +3714,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B76">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D76">
         <v>410</v>
@@ -3980,13 +3732,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D77">
         <v>411</v>
@@ -3998,13 +3750,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D78">
         <v>412</v>
@@ -4016,13 +3768,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B79">
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D79">
         <v>413</v>
@@ -4034,13 +3786,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B80">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D80">
         <v>414</v>
@@ -4052,13 +3804,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B81">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D81">
         <v>415</v>
@@ -4070,13 +3822,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B82">
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D82">
         <v>416</v>
@@ -4088,13 +3840,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B83">
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D83">
         <v>417</v>
@@ -4106,13 +3858,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D84">
         <v>418</v>
@@ -4124,13 +3876,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D85">
         <v>501</v>
@@ -4142,13 +3894,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B86">
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D86">
         <v>502</v>
@@ -4160,13 +3912,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D87">
         <v>503</v>
@@ -4178,13 +3930,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D88">
         <v>504</v>
@@ -4196,13 +3948,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D89">
         <v>505</v>
@@ -4214,13 +3966,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D90">
         <v>506</v>
@@ -4232,13 +3984,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D91">
         <v>507</v>
@@ -4250,13 +4002,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B92">
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D92">
         <v>508</v>
@@ -4268,13 +4020,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D93">
         <v>509</v>
@@ -4286,13 +4038,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B94">
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D94">
         <v>510</v>
@@ -4304,13 +4056,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D95">
         <v>511</v>
@@ -4322,13 +4074,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D96">
         <v>512</v>
@@ -4340,13 +4092,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D97">
         <v>513</v>
@@ -4358,13 +4110,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B98">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D98">
         <v>514</v>
@@ -4376,13 +4128,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B99">
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D99">
         <v>515</v>
@@ -4394,13 +4146,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B100">
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D100">
         <v>516</v>
@@ -4412,13 +4164,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D101">
         <v>517</v>
@@ -4430,13 +4182,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B102">
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D102">
         <v>518</v>
@@ -4448,13 +4200,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D103">
         <v>519</v>
@@ -4466,13 +4218,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D104">
         <v>520</v>
@@ -4484,13 +4236,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D105">
         <v>521</v>
@@ -4502,13 +4254,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B106">
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D106">
         <v>522</v>
@@ -4520,13 +4272,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B107">
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D107">
         <v>523</v>
@@ -4538,13 +4290,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B108">
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D108">
         <v>524</v>
@@ -4556,13 +4308,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B109">
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D109">
         <v>525</v>
@@ -4574,13 +4326,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B110">
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D110">
         <v>526</v>
@@ -4592,13 +4344,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D111">
         <v>527</v>
@@ -4610,13 +4362,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B112">
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D112">
         <v>528</v>
@@ -4628,13 +4380,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B113">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D113">
         <v>529</v>
@@ -4646,13 +4398,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B114">
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D114">
         <v>530</v>
@@ -4664,13 +4416,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B115">
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D115">
         <v>531</v>
@@ -4682,13 +4434,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B116">
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D116">
         <v>532</v>
@@ -4700,13 +4452,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B117">
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D117">
         <v>533</v>
@@ -4718,13 +4470,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B118">
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D118">
         <v>601</v>
@@ -4736,13 +4488,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B119">
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D119">
         <v>602</v>
@@ -4754,13 +4506,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B120">
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D120">
         <v>603</v>
@@ -4772,13 +4524,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B121">
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D121">
         <v>604</v>
@@ -4790,13 +4542,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D122">
         <v>605</v>
@@ -4808,13 +4560,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B123">
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D123">
         <v>606</v>
@@ -4826,13 +4578,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B124">
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D124">
         <v>607</v>
@@ -4844,13 +4596,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B125">
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D125">
         <v>608</v>
@@ -4862,13 +4614,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B126">
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D126">
         <v>609</v>
@@ -4880,13 +4632,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B127">
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D127">
         <v>610</v>
@@ -4898,13 +4650,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B128">
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D128">
         <v>611</v>
@@ -4916,13 +4668,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B129">
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D129">
         <v>612</v>
@@ -4934,13 +4686,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B130">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D130">
         <v>613</v>
@@ -4952,13 +4704,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B131">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D131">
         <v>614</v>
@@ -4970,13 +4722,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B132">
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D132">
         <v>615</v>
@@ -4988,13 +4740,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B133">
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D133">
         <v>616</v>
@@ -5006,13 +4758,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B134">
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D134">
         <v>617</v>
@@ -5024,13 +4776,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B135">
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D135">
         <v>618</v>
@@ -5042,13 +4794,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B136">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D136">
         <v>619</v>
@@ -5060,13 +4812,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B137">
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D137">
         <v>620</v>
@@ -5078,13 +4830,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B138">
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D138">
         <v>621</v>
@@ -5096,13 +4848,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D139">
         <v>622</v>
@@ -5114,13 +4866,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B140">
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D140">
         <v>623</v>
@@ -5132,13 +4884,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B141">
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D141">
         <v>624</v>
@@ -5150,13 +4902,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B142">
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D142">
         <v>625</v>
@@ -5168,13 +4920,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B143">
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D143">
         <v>626</v>
@@ -5186,13 +4938,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B144">
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D144">
         <v>627</v>
@@ -5204,13 +4956,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B145">
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D145">
         <v>628</v>
@@ -5222,13 +4974,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B146">
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D146">
         <v>629</v>
@@ -5240,13 +4992,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B147">
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D147">
         <v>630</v>
@@ -5258,13 +5010,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B148">
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D148">
         <v>631</v>
@@ -5276,13 +5028,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B149">
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D149">
         <v>632</v>
@@ -5294,13 +5046,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B150">
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D150">
         <v>633</v>
@@ -5312,13 +5064,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B151">
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D151">
         <v>634</v>
@@ -5330,13 +5082,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B152">
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D152">
         <v>635</v>
@@ -5348,13 +5100,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B153">
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D153">
         <v>636</v>
@@ -5366,13 +5118,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B154">
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D154">
         <v>637</v>
@@ -5384,13 +5136,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B155">
         <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D155">
         <v>638</v>
@@ -5402,13 +5154,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B156">
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D156">
         <v>639</v>
@@ -5420,13 +5172,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B157">
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D157">
         <v>640</v>
@@ -5438,13 +5190,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B158">
         <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D158">
         <v>641</v>
@@ -5456,13 +5208,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B159">
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D159">
         <v>642</v>
@@ -5474,13 +5226,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B160">
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D160">
         <v>643</v>
@@ -5492,13 +5244,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B161">
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D161">
         <v>701</v>
@@ -5510,13 +5262,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B162">
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D162">
         <v>702</v>
@@ -5528,13 +5280,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B163">
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D163">
         <v>703</v>
@@ -5546,13 +5298,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B164">
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D164">
         <v>704</v>
@@ -5564,13 +5316,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B165">
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D165">
         <v>705</v>
@@ -5582,13 +5334,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B166">
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D166">
         <v>706</v>
@@ -5600,13 +5352,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B167">
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D167">
         <v>707</v>
@@ -5618,13 +5370,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B168">
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D168">
         <v>708</v>
@@ -5636,13 +5388,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B169">
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D169">
         <v>709</v>
@@ -5654,13 +5406,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B170">
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D170">
         <v>801</v>
@@ -5672,13 +5424,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B171">
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D171">
         <v>802</v>
@@ -5690,13 +5442,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B172">
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D172">
         <v>803</v>
@@ -5708,13 +5460,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B173">
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D173">
         <v>804</v>
@@ -5726,13 +5478,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B174">
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D174">
         <v>805</v>
@@ -5744,13 +5496,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B175">
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D175">
         <v>806</v>
@@ -5762,13 +5514,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B176">
         <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D176">
         <v>901</v>
@@ -5780,13 +5532,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B177">
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D177">
         <v>902</v>
@@ -5798,13 +5550,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B178">
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D178">
         <v>903</v>
@@ -5816,13 +5568,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B179">
         <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D179">
         <v>904</v>
@@ -5834,13 +5586,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B180">
         <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D180">
         <v>905</v>
@@ -5852,13 +5604,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B181">
         <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D181">
         <v>906</v>
@@ -5870,13 +5622,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B182">
         <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D182">
         <v>907</v>
@@ -5888,13 +5640,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B183">
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D183">
         <v>908</v>
@@ -5906,13 +5658,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B184">
         <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D184">
         <v>909</v>
@@ -5924,13 +5676,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B185">
         <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D185">
         <v>910</v>
@@ -5942,13 +5694,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B186">
         <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D186">
         <v>911</v>
@@ -5960,13 +5712,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B187">
         <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D187">
         <v>912</v>
@@ -5978,13 +5730,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B188">
         <v>10</v>
       </c>
       <c r="C188" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D188">
         <v>1001</v>
@@ -5996,13 +5748,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B189">
         <v>10</v>
       </c>
       <c r="C189" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D189">
         <v>1002</v>
@@ -6014,13 +5766,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B190">
         <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D190">
         <v>1003</v>
@@ -6032,13 +5784,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B191">
         <v>10</v>
       </c>
       <c r="C191" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D191">
         <v>1004</v>
@@ -6050,13 +5802,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B192">
         <v>10</v>
       </c>
       <c r="C192" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D192">
         <v>1005</v>
@@ -6068,13 +5820,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B193">
         <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D193">
         <v>1006</v>
@@ -6086,13 +5838,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B194">
         <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D194">
         <v>1007</v>
@@ -6104,13 +5856,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B195">
         <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D195">
         <v>1008</v>
@@ -6122,13 +5874,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B196">
         <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D196">
         <v>1009</v>
@@ -6140,13 +5892,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B197">
         <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D197">
         <v>1010</v>
@@ -6158,13 +5910,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B198">
         <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D198">
         <v>1011</v>
@@ -6176,13 +5928,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B199">
         <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D199">
         <v>1101</v>
@@ -6194,13 +5946,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B200">
         <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D200">
         <v>1102</v>
@@ -6212,13 +5964,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B201">
         <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D201">
         <v>1103</v>
@@ -6230,13 +5982,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B202">
         <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D202">
         <v>1104</v>
@@ -6248,13 +6000,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B203">
         <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D203">
         <v>1105</v>
@@ -6266,13 +6018,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B204">
         <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D204">
         <v>1106</v>
@@ -6284,13 +6036,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B205">
         <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D205">
         <v>1107</v>
@@ -6302,13 +6054,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B206">
         <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D206">
         <v>1108</v>
@@ -6320,13 +6072,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B207">
         <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D207">
         <v>1109</v>
@@ -6338,13 +6090,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B208">
         <v>12</v>
       </c>
       <c r="C208" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D208">
         <v>1201</v>
@@ -6356,13 +6108,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B209">
         <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D209">
         <v>1202</v>
@@ -6374,13 +6126,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B210">
         <v>12</v>
       </c>
       <c r="C210" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D210">
         <v>1203</v>
@@ -6392,13 +6144,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B211">
         <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D211">
         <v>1204</v>
@@ -6410,13 +6162,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B212">
         <v>12</v>
       </c>
       <c r="C212" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D212">
         <v>1205</v>
@@ -6428,13 +6180,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B213">
         <v>12</v>
       </c>
       <c r="C213" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D213">
         <v>1206</v>
@@ -6446,13 +6198,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B214">
         <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D214">
         <v>1207</v>
@@ -6464,13 +6216,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B215">
         <v>12</v>
       </c>
       <c r="C215" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D215">
         <v>1208</v>
@@ -6482,13 +6234,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B216">
         <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D216">
         <v>1209</v>
@@ -6500,13 +6252,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B217">
         <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D217">
         <v>1210</v>
@@ -6518,13 +6270,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B218">
         <v>12</v>
       </c>
       <c r="C218" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D218">
         <v>1211</v>
@@ -6536,13 +6288,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B219">
         <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D219">
         <v>1212</v>
@@ -6554,13 +6306,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B220">
         <v>12</v>
       </c>
       <c r="C220" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D220">
         <v>1213</v>
@@ -6572,13 +6324,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B221">
         <v>12</v>
       </c>
       <c r="C221" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D221">
         <v>1214</v>
@@ -6590,13 +6342,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B222">
         <v>12</v>
       </c>
       <c r="C222" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D222">
         <v>1215</v>
@@ -6608,13 +6360,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B223">
         <v>12</v>
       </c>
       <c r="C223" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D223">
         <v>1216</v>
@@ -6626,13 +6378,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B224">
         <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D224">
         <v>1301</v>
@@ -6644,13 +6396,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B225">
         <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D225">
         <v>1302</v>
@@ -6662,13 +6414,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B226">
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D226">
         <v>1303</v>
@@ -6680,13 +6432,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B227">
         <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D227">
         <v>1304</v>
@@ -6698,13 +6450,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B228">
         <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D228">
         <v>1305</v>
@@ -6716,13 +6468,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B229">
         <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D229">
         <v>1306</v>
@@ -6734,13 +6486,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B230">
         <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D230">
         <v>1307</v>
@@ -6752,13 +6504,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B231">
         <v>14</v>
       </c>
       <c r="C231" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D231">
         <v>1401</v>
@@ -6770,13 +6522,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B232">
         <v>14</v>
       </c>
       <c r="C232" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D232">
         <v>1402</v>
@@ -6788,13 +6540,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B233">
         <v>14</v>
       </c>
       <c r="C233" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D233">
         <v>1403</v>
@@ -6806,13 +6558,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B234">
         <v>14</v>
       </c>
       <c r="C234" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D234">
         <v>1404</v>
@@ -6824,13 +6576,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B235">
         <v>14</v>
       </c>
       <c r="C235" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D235">
         <v>1405</v>
@@ -6842,13 +6594,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B236">
         <v>14</v>
       </c>
       <c r="C236" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D236">
         <v>1406</v>
@@ -6860,13 +6612,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B237">
         <v>15</v>
       </c>
       <c r="C237" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D237">
         <v>1501</v>
@@ -6878,13 +6630,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B238">
         <v>15</v>
       </c>
       <c r="C238" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D238">
         <v>1502</v>
@@ -6896,13 +6648,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B239">
         <v>15</v>
       </c>
       <c r="C239" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D239">
         <v>1503</v>
@@ -6914,13 +6666,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B240">
         <v>15</v>
       </c>
       <c r="C240" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D240">
         <v>1504</v>
@@ -6932,13 +6684,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B241">
         <v>15</v>
       </c>
       <c r="C241" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D241">
         <v>1505</v>
@@ -6950,13 +6702,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B242">
         <v>15</v>
       </c>
       <c r="C242" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D242">
         <v>1506</v>
@@ -6968,13 +6720,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B243">
         <v>15</v>
       </c>
       <c r="C243" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D243">
         <v>1507</v>
@@ -6986,13 +6738,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B244">
         <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D244">
         <v>1508</v>
@@ -7004,13 +6756,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B245">
         <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D245">
         <v>1509</v>
@@ -7022,13 +6774,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B246">
         <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D246">
         <v>1510</v>
@@ -7040,13 +6792,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B247">
         <v>15</v>
       </c>
       <c r="C247" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D247">
         <v>1511</v>
@@ -7058,13 +6810,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B248">
         <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D248">
         <v>1512</v>
@@ -7076,13 +6828,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B249">
         <v>15</v>
       </c>
       <c r="C249" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D249">
         <v>1513</v>
@@ -7094,13 +6846,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B250">
         <v>15</v>
       </c>
       <c r="C250" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D250">
         <v>1514</v>
@@ -7112,13 +6864,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B251">
         <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D251">
         <v>1515</v>
@@ -7130,13 +6882,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B252">
         <v>16</v>
       </c>
       <c r="C252" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D252">
         <v>1601</v>
@@ -7148,13 +6900,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B253">
         <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D253">
         <v>1602</v>
@@ -7166,13 +6918,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B254">
         <v>16</v>
       </c>
       <c r="C254" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D254">
         <v>1603</v>
@@ -7184,13 +6936,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B255">
         <v>16</v>
       </c>
       <c r="C255" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D255">
         <v>1604</v>
@@ -7202,13 +6954,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B256">
         <v>16</v>
       </c>
       <c r="C256" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D256">
         <v>1605</v>
@@ -7220,13 +6972,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B257">
         <v>16</v>
       </c>
       <c r="C257" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D257">
         <v>1606</v>
@@ -7238,13 +6990,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B258">
         <v>16</v>
       </c>
       <c r="C258" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D258">
         <v>1607</v>
@@ -7256,13 +7008,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B259">
         <v>16</v>
       </c>
       <c r="C259" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D259">
         <v>1608</v>
@@ -7274,13 +7026,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B260">
         <v>16</v>
       </c>
       <c r="C260" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D260">
         <v>1609</v>
@@ -7292,13 +7044,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B261">
         <v>16</v>
       </c>
       <c r="C261" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D261">
         <v>1610</v>
@@ -7310,13 +7062,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B262">
         <v>16</v>
       </c>
       <c r="C262" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D262">
         <v>1611</v>
@@ -7329,1090 +7081,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8951C67A-9BF8-4D82-95D4-0E1226FFDFDC}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9646CC-C19B-41D4-B524-9BC17A90B93E}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="5">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="5">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423BDB98-5714-4629-B6F7-66FF2699AE34}">
-  <dimension ref="A1:E69"/>
-  <sheetViews>
-    <sheetView topLeftCell="C66" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.6640625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>23</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>24</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>25</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>27</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>28</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>29</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>30</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>31</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>32</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>33</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>34</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>35</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>36</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>37</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>1</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>2</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>3</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>4</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>5</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>6</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>7</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>1</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>2</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>3</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>4</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>5</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>6</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>7</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>8</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>9</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
-        <v>10</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <v>11</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>12</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <v>13</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>14</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>15</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C67" s="9"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/server/loginDataAccess.xlsx
+++ b/server/loginDataAccess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2024ICBT\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0053D4A1-35E7-45DE-81DB-1331F5B38F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF66079-3928-4321-BB6D-294E4E068C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dqm_placement" sheetId="1" r:id="rId1"/>
@@ -1460,7 +1460,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1927,8 +1927,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>6</v>
+      <c r="A16" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>25</v>
@@ -1954,7 +1954,7 @@
         <v>336</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2184,11 +2184,10 @@
     <hyperlink ref="A14" r:id="rId5" xr:uid="{DE681AFC-66F8-415A-9C4F-04CF55F0A9FA}"/>
     <hyperlink ref="A3" r:id="rId6" xr:uid="{74C90144-6B29-4F24-9A0A-97908146FAA4}"/>
     <hyperlink ref="A2" r:id="rId7" xr:uid="{9DAE8955-5296-4A96-BE41-F0D4D89EED46}"/>
-    <hyperlink ref="A16" r:id="rId8" xr:uid="{0A86EA83-5372-4B24-857B-0197E66FA2F0}"/>
-    <hyperlink ref="A23" r:id="rId9" xr:uid="{A68EAAD3-3FA1-4D5D-AEF2-3BDF361FF021}"/>
+    <hyperlink ref="A23" r:id="rId8" xr:uid="{A68EAAD3-3FA1-4D5D-AEF2-3BDF361FF021}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/server/loginDataAccess.xlsx
+++ b/server/loginDataAccess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2024ICBT\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D870216A-CF86-4BC8-86E2-F29FF0B6EA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72C750C-53E5-41F7-A22D-E394DFF42303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="districtCODES" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dqm_placement!$A$1:$I$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dqm_placement!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="340">
   <si>
     <t>email</t>
   </si>
@@ -1460,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2029,7 +2029,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="4">
-        <f>E19</f>
+        <f t="shared" ref="D19:D23" si="0">E19</f>
         <v>4</v>
       </c>
       <c r="E19" s="4">
@@ -2060,7 +2060,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="4">
-        <f>E20</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="E20" s="4">
@@ -2091,7 +2091,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="4">
-        <f>E21</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E21" s="4">
@@ -2122,7 +2122,7 @@
         <v>33</v>
       </c>
       <c r="D22" s="4">
-        <f>E22</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E22" s="4">
@@ -2143,28 +2143,28 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>8</v>
+      <c r="A23" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4">
-        <f>E23</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E23" s="4">
         <f>VLOOKUP(C23,regionCODES!A:B,2,FALSE)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F23" s="4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>336</v>
@@ -2173,39 +2173,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="4">
-        <f>E24</f>
-        <v>11</v>
-      </c>
-      <c r="E24" s="4">
-        <f>VLOOKUP(C24,regionCODES!A:B,2,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>13</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A17" r:id="rId1" xr:uid="{D626F59B-8E50-44E9-AC4C-8F2EA6B22CDC}"/>
     <hyperlink ref="A15" r:id="rId2" xr:uid="{740B8960-B9E1-4EBE-9BE7-4237D685F812}"/>
@@ -2214,11 +2183,10 @@
     <hyperlink ref="A14" r:id="rId5" xr:uid="{DE681AFC-66F8-415A-9C4F-04CF55F0A9FA}"/>
     <hyperlink ref="A3" r:id="rId6" xr:uid="{74C90144-6B29-4F24-9A0A-97908146FAA4}"/>
     <hyperlink ref="A2" r:id="rId7" xr:uid="{9DAE8955-5296-4A96-BE41-F0D4D89EED46}"/>
-    <hyperlink ref="A23" r:id="rId8" xr:uid="{A68EAAD3-3FA1-4D5D-AEF2-3BDF361FF021}"/>
-    <hyperlink ref="A24" r:id="rId9" xr:uid="{6B956567-910C-410F-9E7C-A90F6AE5440F}"/>
+    <hyperlink ref="A23" r:id="rId8" xr:uid="{6B956567-910C-410F-9E7C-A90F6AE5440F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/server/loginDataAccess.xlsx
+++ b/server/loginDataAccess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2024ICBT\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72C750C-53E5-41F7-A22D-E394DFF42303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC50640-4D36-4C2E-BDB3-D84B060090F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="341">
   <si>
     <t>email</t>
   </si>
@@ -1059,13 +1059,16 @@
   </si>
   <si>
     <t>andosty@gmail.com</t>
+  </si>
+  <si>
+    <t>andosty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,8 +1118,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1132,6 +1143,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1169,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -1176,6 +1193,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1460,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2143,34 +2165,65 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="16">
         <f>VLOOKUP(C23,regionCODES!A:B,2,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="16">
+        <v>4</v>
+      </c>
+      <c r="G23" s="16">
+        <v>8</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="16">
+        <f>E24</f>
+        <v>7</v>
+      </c>
+      <c r="E24" s="16">
+        <f>VLOOKUP(C24,regionCODES!A:B,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="F24" s="16">
         <v>1</v>
       </c>
-      <c r="G23" s="4">
-        <v>13</v>
-      </c>
-      <c r="H23" s="4" t="s">
+      <c r="G24" s="16">
+        <v>5</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>330</v>
+      <c r="I24" s="17" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2184,9 +2237,10 @@
     <hyperlink ref="A3" r:id="rId6" xr:uid="{74C90144-6B29-4F24-9A0A-97908146FAA4}"/>
     <hyperlink ref="A2" r:id="rId7" xr:uid="{9DAE8955-5296-4A96-BE41-F0D4D89EED46}"/>
     <hyperlink ref="A23" r:id="rId8" xr:uid="{6B956567-910C-410F-9E7C-A90F6AE5440F}"/>
+    <hyperlink ref="A24" r:id="rId9" xr:uid="{B03A16A3-DC35-4DB2-96F3-94E8B885E018}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId9"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
